--- a/out/output.example.xlsx
+++ b/out/output.example.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E9BFC6-0FF2-2F4D-A183-C753782073C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t>Page</t>
+  </si>
   <si>
     <t>URL</t>
   </si>
@@ -32,7 +31,10 @@
     <t>Format</t>
   </si>
   <si>
-    <t>https://vk.com/mariupolads</t>
+    <t>Геммология</t>
+  </si>
+  <si>
+    <t>https://vk.com/gemology</t>
   </si>
   <si>
     <t>Vkontakte</t>
@@ -41,37 +43,39 @@
     <t>Пост</t>
   </si>
   <si>
-    <t>https://vk.com/ekbloves</t>
-  </si>
-  <si>
-    <t>https://vk.com/deaf_communication</t>
-  </si>
-  <si>
-    <t>https://vk.com/ekbnaplotinke</t>
-  </si>
-  <si>
-    <t>https://vk.com/novostuekb</t>
-  </si>
-  <si>
-    <t>https://vk.com/avtorinokmariupol</t>
+    <t>Минералы - Сокровища природы</t>
+  </si>
+  <si>
+    <t>https://vk.com/jewels_of_nature</t>
+  </si>
+  <si>
+    <t>vap ur</t>
+  </si>
+  <si>
+    <t>https://vk.com/fae9fe</t>
+  </si>
+  <si>
+    <t>Татьяна Гусева. Блог.</t>
+  </si>
+  <si>
+    <t>https://vk.com/tatiana_bayard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,17 +441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="15" style="1" customWidth="1"/>
+    <col min="1" max="6" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,111 +464,92 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>36678</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7610</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>77082</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6340</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>72157</v>
-      </c>
-      <c r="C3" s="1">
-        <v>46700</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>62609</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25410</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>13245</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1454</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>48699</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>44700</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>26589</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26010</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>23203</v>
-      </c>
-      <c r="C6" s="1">
-        <v>35100</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12456</v>
-      </c>
-      <c r="C7" s="1">
-        <v>540</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>